--- a/Quroum_Round_USA/Stage1/StateToState.xlsx
+++ b/Quroum_Round_USA/Stage1/StateToState.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepos\A_Quorum_Journey\Quroum_Round_USA\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91471F03-6A73-4052-8C67-413FEBC2381A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9443F820-7236-4ED7-9542-678EB2ACD220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33750" yWindow="-225" windowWidth="31395" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3465" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="StatesCrossed" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$63</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="69">
   <si>
     <t>Order</t>
   </si>
@@ -122,13 +125,133 @@
   </si>
   <si>
     <t>RT_Km</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Pennslyvania</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +262,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -157,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -165,17 +294,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -457,304 +604,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>40.851490376828103</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>-73.952103997174106</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>40.994207943638699</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>-73.659627508505395</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>776</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>41.442352946849098</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>-71.796650856708098</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>1716</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>41.665696041588902</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>-71.161775019954803</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>2391</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>42.8808011349754</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>-70.882881929811006</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>3356</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>43.092691060615401</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>-70.766385316284598</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>3466</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>44.385145515344597</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>-71.0156164820052</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>44.3431803447655</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>-71.890758408619405</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>8591</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>44.343349494841803</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>-71.891327198994006</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>44.343348434898502</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>-71.891370471813104</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>44.694205887861202</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>-73.361351523356404</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>42.253000802781898</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>-79.762115480573101</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>13436</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>41.937335148049101</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>-80.519374352360302</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>13621</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>41.732103291877699</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>-83.488662090046304</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>14706</v>
       </c>
     </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>41.732039753086902</v>
+      </c>
+      <c r="G16">
+        <v>-83.488986612365693</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>39.0922100114255</v>
+      </c>
+      <c r="G17">
+        <v>-84.522588056208903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18">
+        <v>37.904329138035799</v>
+      </c>
+      <c r="G18">
+        <v>-86.742701181258795</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19">
+        <v>38.7074572585826</v>
+      </c>
+      <c r="G19">
+        <v>-87.519192946420205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20">
+        <v>38.618003212465702</v>
+      </c>
+      <c r="G20">
+        <v>-90.182592462229394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21">
+        <v>39.099016497713002</v>
+      </c>
+      <c r="G21">
+        <v>-94.607139544148794</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22">
+        <v>39.3297157764407</v>
+      </c>
+      <c r="G22">
+        <v>-94.908508856479003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23">
+        <v>40.575218586784899</v>
+      </c>
+      <c r="G23">
+        <v>-93.937174543461893</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24">
+        <v>42.515584756838599</v>
+      </c>
+      <c r="G24">
+        <v>-90.636798025705204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25">
+        <v>44.962757949345402</v>
+      </c>
+      <c r="G25">
+        <v>-92.759555089986705</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26">
+        <v>43.499941417494902</v>
+      </c>
+      <c r="G26">
+        <v>-95.683511273435201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27">
+        <v>42.488001010835298</v>
+      </c>
+      <c r="G27">
+        <v>-96.413737403750901</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28">
+        <v>42.9981951518903</v>
+      </c>
+      <c r="G28">
+        <v>-98.885590099601202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29">
+        <v>44.811722995792202</v>
+      </c>
+      <c r="G29">
+        <v>-104.05617915281999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30">
+        <v>44.9981423665443</v>
+      </c>
+      <c r="G30">
+        <v>-104.365954969264</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31">
+        <v>47.456113124812397</v>
+      </c>
+      <c r="G31">
+        <v>-115.695198922518</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32">
+        <v>47.696932416769997</v>
+      </c>
+      <c r="G32">
+        <v>-117.041641292279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33">
+        <v>45.675857938801101</v>
+      </c>
+      <c r="G33">
+        <v>-120.836076664169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34">
+        <v>42.005372567888998</v>
+      </c>
+      <c r="G34">
+        <v>-122.615611805387</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35">
+        <v>35.607070438043202</v>
+      </c>
+      <c r="G35">
+        <v>-115.391147726041</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36">
+        <v>36.011815167381499</v>
+      </c>
+      <c r="G36">
+        <v>-114.740075156847</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37">
+        <v>37.001691173194899</v>
+      </c>
+      <c r="G37">
+        <v>-111.57279949660401</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38">
+        <v>41.9994384751962</v>
+      </c>
+      <c r="G38">
+        <v>-112.832506887956</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39">
+        <v>43.543492462038202</v>
+      </c>
+      <c r="G39">
+        <v>-111.045501381783</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40">
+        <v>40.998207424995002</v>
+      </c>
+      <c r="G40">
+        <v>-104.906929837048</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41">
+        <v>36.993898081197102</v>
+      </c>
+      <c r="G41">
+        <v>-104.48062324801</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42">
+        <v>32.0003205752311</v>
+      </c>
+      <c r="G42">
+        <v>-104.531993448121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43">
+        <v>33.727179205603697</v>
+      </c>
+      <c r="G43">
+        <v>-97.159374056442601</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44">
+        <v>35.451426367210999</v>
+      </c>
+      <c r="G44">
+        <v>-94.441261204757595</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45">
+        <v>35.127717384530001</v>
+      </c>
+      <c r="G45">
+        <v>-90.076077015797793</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46">
+        <v>34.995004172946203</v>
+      </c>
+      <c r="G46">
+        <v>-90.002532312458598</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47">
+        <v>30.4742057483816</v>
+      </c>
+      <c r="G47">
+        <v>-88.400469703676194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48">
+        <v>30.573549062664199</v>
+      </c>
+      <c r="G48">
+        <v>-87.412411617613799</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49">
+        <v>30.776587006006501</v>
+      </c>
+      <c r="G49">
+        <v>-81.978900523306194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50">
+        <v>32.235570839211199</v>
+      </c>
+      <c r="G50">
+        <v>-81.151228139363994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51">
+        <v>35.103213693366499</v>
+      </c>
+      <c r="G51">
+        <v>-80.931031453331499</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52">
+        <v>36.5616598820775</v>
+      </c>
+      <c r="G52">
+        <v>-80.744742899501503</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53">
+        <v>37.275353979356503</v>
+      </c>
+      <c r="G53">
+        <v>-81.123480397960094</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54">
+        <v>37.787433690185701</v>
+      </c>
+      <c r="G54">
+        <v>-80.224274397334597</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>64</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F55">
+        <v>36.550554145349999</v>
+      </c>
+      <c r="G55">
+        <v>-76.192889736583894</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56">
+        <v>36.550554145349999</v>
+      </c>
+      <c r="G56">
+        <v>-76.192889736583894</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F57">
+        <v>38.873048107312201</v>
+      </c>
+      <c r="G57">
+        <v>-77.042278018064195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58">
+        <v>38.912213939892197</v>
+      </c>
+      <c r="G58">
+        <v>-76.934085574754803</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F59">
+        <v>39.411905136447999</v>
+      </c>
+      <c r="G59">
+        <v>-75.769359711446995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>39.685323607950302</v>
+      </c>
+      <c r="G60">
+        <v>-75.509368983733197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61">
+        <v>39.952949586790403</v>
+      </c>
+      <c r="G61">
+        <v>-75.134381049768905</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>7</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="D62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>40.117098685743201</v>
+      </c>
+      <c r="G62">
+        <v>-74.830552506966796</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F63">
+        <v>40.692747954399302</v>
+      </c>
+      <c r="G63">
+        <v>-74.056604733815703</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:H63" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -762,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8429C2C1-E209-4297-BF39-C37204A66862}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Quroum_Round_USA/Stage1/StateToState.xlsx
+++ b/Quroum_Round_USA/Stage1/StateToState.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepos\A_Quorum_Journey\Quroum_Round_USA\Stage1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHubRepos\A_Quorum_Journey\Quroum_Round_USA\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9443F820-7236-4ED7-9542-678EB2ACD220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202C7A76-83A1-4A30-A05D-9F853E91BD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3465" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="StatesCrossed" sheetId="2" r:id="rId2"/>
+    <sheet name="Stage2StatesCrossed" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$63</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="71">
   <si>
     <t>Order</t>
   </si>
@@ -245,12 +246,21 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Lon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000000000000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -286,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -294,27 +304,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -322,7 +317,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -605,16 +601,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -996,7 +991,7 @@
         <v>-83.488986612365693</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1018,8 +1013,13 @@
       <c r="G17">
         <v>-84.522588056208903</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>2881</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1041,8 +1041,13 @@
       <c r="G18">
         <v>-86.742701181258795</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>7964</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1064,8 +1069,13 @@
       <c r="G19">
         <v>-87.519192946420205</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>9551</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1087,8 +1097,13 @@
       <c r="G20">
         <v>-90.182592462229394</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>11171</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1110,8 +1125,13 @@
       <c r="G21">
         <v>-94.607139544148794</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>13056</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1131,7 +1151,7 @@
         <v>-94.908508856479003</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1153,8 +1173,13 @@
       <c r="G23">
         <v>-93.937174543461893</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>14256</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1177,7 +1202,7 @@
         <v>-90.636798025705204</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1200,7 +1225,7 @@
         <v>-92.759555089986705</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1220,7 +1245,7 @@
         <v>-95.683511273435201</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1243,7 +1268,7 @@
         <v>-96.413737403750901</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1266,7 +1291,7 @@
         <v>-98.885590099601202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1289,7 +1314,7 @@
         <v>-104.05617915281999</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1312,7 +1337,7 @@
         <v>-104.365954969264</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1335,7 +1360,7 @@
         <v>-115.695198922518</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1928,10 +1953,10 @@
       <c r="C58" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="6" t="s">
         <v>64</v>
       </c>
       <c r="F58">
@@ -2068,7 +2093,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G12"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2405,4 +2430,188 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F28B7B-C043-471C-A8B9-94B5D0E32AE0}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5">
+        <v>39.0922100114255</v>
+      </c>
+      <c r="E2" s="5">
+        <v>-84.522588056208903</v>
+      </c>
+      <c r="F2">
+        <v>2881</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"INSERT INTO [dbo].[Journey_USA_States] ([Order],[ExitingState],[EnteringState],[Lat],[Lon] ,[Idx]) VALUES ("&amp;A2&amp;",'"&amp;B2&amp;"','"&amp;C2&amp;"',"&amp;D2&amp;","&amp;E2&amp;","&amp;F2&amp;")"</f>
+        <v>INSERT INTO [dbo].[Journey_USA_States] ([Order],[ExitingState],[EnteringState],[Lat],[Lon] ,[Idx]) VALUES (16,'Ohio ','Kentucky',39.0922100114255,-84.5225880562089,2881)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="5">
+        <v>37.904329138035799</v>
+      </c>
+      <c r="E3" s="5">
+        <v>-86.742701181258795</v>
+      </c>
+      <c r="F3">
+        <v>7964</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G7" si="0">"INSERT INTO [dbo].[Journey_USA_States] ([Order],[ExitingState],[EnteringState],[Lat],[Lon] ,[Idx]) VALUES ("&amp;A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;")"</f>
+        <v>INSERT INTO [dbo].[Journey_USA_States] ([Order],[ExitingState],[EnteringState],[Lat],[Lon] ,[Idx]) VALUES (17,'Kentucky','Indiana',37.9043291380358,-86.7427011812588,7964)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="5">
+        <v>38.7074572585826</v>
+      </c>
+      <c r="E4" s="5">
+        <v>-87.519192946420205</v>
+      </c>
+      <c r="F4">
+        <v>9551</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [dbo].[Journey_USA_States] ([Order],[ExitingState],[EnteringState],[Lat],[Lon] ,[Idx]) VALUES (18,'Indiana','Illinois',38.7074572585826,-87.5191929464202,9551)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="5">
+        <v>38.618003212465702</v>
+      </c>
+      <c r="E5" s="5">
+        <v>-90.182592462229394</v>
+      </c>
+      <c r="F5">
+        <v>11171</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [dbo].[Journey_USA_States] ([Order],[ExitingState],[EnteringState],[Lat],[Lon] ,[Idx]) VALUES (19,'Illinois','Missouri',38.6180032124657,-90.1825924622294,11171)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="5">
+        <v>39.099016497713002</v>
+      </c>
+      <c r="E6" s="5">
+        <v>-94.607139544148794</v>
+      </c>
+      <c r="F6">
+        <v>13056</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [dbo].[Journey_USA_States] ([Order],[ExitingState],[EnteringState],[Lat],[Lon] ,[Idx]) VALUES (20,'Missouri','Kansas',39.099016497713,-94.6071395441488,13056)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="5">
+        <v>40.575218586784899</v>
+      </c>
+      <c r="E7" s="5">
+        <v>-93.937174543461893</v>
+      </c>
+      <c r="F7">
+        <v>14256</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [dbo].[Journey_USA_States] ([Order],[ExitingState],[EnteringState],[Lat],[Lon] ,[Idx]) VALUES (22,'Missouri','Iowa',40.5752185867849,-93.9371745434619,14256)</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Quroum_Round_USA/Stage1/StateToState.xlsx
+++ b/Quroum_Round_USA/Stage1/StateToState.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHubRepos\A_Quorum_Journey\Quroum_Round_USA\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202C7A76-83A1-4A30-A05D-9F853E91BD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C582B5DD-DC9A-4938-980A-D0D9A7603D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14220" yWindow="1545" windowWidth="23325" windowHeight="16170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="71">
   <si>
     <t>Order</t>
   </si>
@@ -259,7 +259,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -317,7 +317,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -603,8 +603,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2090,10 +2090,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8429C2C1-E209-4297-BF39-C37204A66862}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2180,7 +2180,7 @@
         <v>41.506194000000001</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I12" si="0">"INSERT INTO [dbo].[Journey_USA_States] ([Order],[ExitingState],[EnteringState],[Lat],[Lon] ,[Idx],[RT_Km]) VALUES ("&amp;A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;")"</f>
+        <f t="shared" ref="I3:I18" si="0">"INSERT INTO [dbo].[Journey_USA_States] ([Order],[ExitingState],[EnteringState],[Lat],[Lon] ,[Idx],[RT_Km]) VALUES ("&amp;A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;")"</f>
         <v>INSERT INTO [dbo].[Journey_USA_States] ([Order],[ExitingState],[EnteringState],[Lat],[Lon] ,[Idx],[RT_Km]) VALUES (1,'New Jersey','  New York',40.85149,-73.9521,311,41.506194)</v>
       </c>
     </row>
@@ -2427,8 +2427,195 @@
         <v>INSERT INTO [dbo].[Journey_USA_States] ([Order],[ExitingState],[EnteringState],[Lat],[Lon] ,[Idx],[RT_Km]) VALUES (14,'Ohio ','Michigan ',41.7321,-83.48866,14706,2611.356652)</v>
       </c>
     </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>39.0922100114255</v>
+      </c>
+      <c r="E13">
+        <v>-84.522588056208903</v>
+      </c>
+      <c r="F13">
+        <v>2881</v>
+      </c>
+      <c r="G13">
+        <v>426.08822900000001</v>
+      </c>
+      <c r="H13">
+        <f>G12+G13</f>
+        <v>3037.4448809999999</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [dbo].[Journey_USA_States] ([Order],[ExitingState],[EnteringState],[Lat],[Lon] ,[Idx],[RT_Km]) VALUES (16,'Ohio ','Kentucky',39.0922100114255,-84.5225880562089,2881,426.088229)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>37.904329138035799</v>
+      </c>
+      <c r="E14">
+        <v>-86.742701181258795</v>
+      </c>
+      <c r="F14">
+        <v>7964</v>
+      </c>
+      <c r="G14">
+        <v>975.93695700000001</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H18" si="1">G13+G14</f>
+        <v>1402.0251860000001</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [dbo].[Journey_USA_States] ([Order],[ExitingState],[EnteringState],[Lat],[Lon] ,[Idx],[RT_Km]) VALUES (17,'Kentucky','Indiana',37.9043291380358,-86.7427011812588,7964,975.936957)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>38.7074572585826</v>
+      </c>
+      <c r="E15">
+        <v>-87.519192946420205</v>
+      </c>
+      <c r="F15">
+        <v>9551</v>
+      </c>
+      <c r="G15">
+        <v>1112.09211</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>2088.0290669999999</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [dbo].[Journey_USA_States] ([Order],[ExitingState],[EnteringState],[Lat],[Lon] ,[Idx],[RT_Km]) VALUES (18,'Indiana','Illinois',38.7074572585826,-87.5191929464202,9551,1112.09211)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <v>38.618003212465702</v>
+      </c>
+      <c r="E16">
+        <v>-90.182592462229394</v>
+      </c>
+      <c r="F16">
+        <v>11171</v>
+      </c>
+      <c r="G16">
+        <v>1525.3302920000001</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>2637.4224020000001</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [dbo].[Journey_USA_States] ([Order],[ExitingState],[EnteringState],[Lat],[Lon] ,[Idx],[RT_Km]) VALUES (19,'Illinois','Missouri',38.6180032124657,-90.1825924622294,11171,1525.330292)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>39.099016497713002</v>
+      </c>
+      <c r="E17">
+        <v>-94.607139544148794</v>
+      </c>
+      <c r="F17">
+        <v>13056</v>
+      </c>
+      <c r="G17">
+        <v>1929.2547589999999</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>3454.585051</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [dbo].[Journey_USA_States] ([Order],[ExitingState],[EnteringState],[Lat],[Lon] ,[Idx],[RT_Km]) VALUES (20,'Missouri','Kansas',39.099016497713,-94.6071395441488,13056,1929.254759)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18">
+        <v>40.575218586784899</v>
+      </c>
+      <c r="E18">
+        <v>-93.937174543461893</v>
+      </c>
+      <c r="F18">
+        <v>14256</v>
+      </c>
+      <c r="G18">
+        <v>2181.2911300000001</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>4110.545889</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [dbo].[Journey_USA_States] ([Order],[ExitingState],[EnteringState],[Lat],[Lon] ,[Idx],[RT_Km]) VALUES (22,'Missouri','Iowa',40.5752185867849,-93.9371745434619,14256,2181.29113)</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2436,7 +2623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F28B7B-C043-471C-A8B9-94B5D0E32AE0}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/Quroum_Round_USA/Stage1/StateToState.xlsx
+++ b/Quroum_Round_USA/Stage1/StateToState.xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHubRepos\A_Quorum_Journey\Quroum_Round_USA\Stage1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepos\A_Quorum_Journey\Quroum_Round_USA\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202C7A76-83A1-4A30-A05D-9F853E91BD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CF8416-C8AF-4143-8B06-A29F0EF7CE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27780" yWindow="-1740" windowWidth="20985" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="All States" sheetId="1" r:id="rId1"/>
     <sheet name="StatesCrossed" sheetId="2" r:id="rId2"/>
     <sheet name="Stage2StatesCrossed" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All States'!$A$1:$H$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -259,7 +259,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -317,7 +317,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -603,7 +603,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
@@ -2436,7 +2436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F28B7B-C043-471C-A8B9-94B5D0E32AE0}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/Quroum_Round_USA/Stage1/StateToState.xlsx
+++ b/Quroum_Round_USA/Stage1/StateToState.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepos\A_Quorum_Journey\Quroum_Round_USA\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CF8416-C8AF-4143-8B06-A29F0EF7CE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91A7631-7FA0-4124-A4E4-33B0796E661F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27780" yWindow="-1740" windowWidth="20985" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39000" yWindow="-630" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All States" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="72">
   <si>
     <t>Order</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>Lon</t>
+  </si>
+  <si>
+    <t>KM for Start</t>
   </si>
 </sst>
 </file>
@@ -600,11 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,9 +614,10 @@
     <col min="4" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -630,8 +633,11 @@
       <c r="H1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -657,7 +663,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -683,7 +689,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -709,7 +715,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -735,7 +741,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -761,7 +767,7 @@
         <v>3356</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -787,7 +793,7 @@
         <v>3466</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -807,7 +813,7 @@
         <v>-71.0156164820052</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -833,7 +839,7 @@
         <v>8591</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -853,7 +859,7 @@
         <v>-71.891327198994006</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -873,7 +879,7 @@
         <v>-71.891370471813104</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -893,7 +899,7 @@
         <v>-73.361351523356404</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -919,7 +925,7 @@
         <v>13436</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -945,7 +951,7 @@
         <v>13621</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -971,7 +977,7 @@
         <v>14706</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1016,6 +1022,9 @@
       <c r="H17">
         <v>2881</v>
       </c>
+      <c r="I17">
+        <v>426.08822900000001</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
@@ -1044,6 +1053,9 @@
       <c r="H18">
         <v>7964</v>
       </c>
+      <c r="I18">
+        <v>975.93695700000001</v>
+      </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
@@ -1072,6 +1084,9 @@
       <c r="H19">
         <v>9551</v>
       </c>
+      <c r="I19">
+        <v>1112.09211</v>
+      </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
@@ -1100,6 +1115,9 @@
       <c r="H20">
         <v>11171</v>
       </c>
+      <c r="I20">
+        <v>1525.3302920000001</v>
+      </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
@@ -1128,10 +1146,13 @@
       <c r="H21">
         <v>13056</v>
       </c>
+      <c r="I21">
+        <v>1929.2547589999999</v>
+      </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1176,6 +1197,9 @@
       <c r="H23">
         <v>14256</v>
       </c>
+      <c r="I23">
+        <v>2181.2911300000001</v>
+      </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
@@ -1225,7 +1249,7 @@
         <v>-92.759555089986705</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1498,7 +1522,7 @@
         <v>-111.57279949660401</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -1518,7 +1542,7 @@
         <v>-112.832506887956</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -1860,7 +1884,7 @@
         <v>-81.123480397960094</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6</v>
       </c>
@@ -1880,7 +1904,7 @@
         <v>-80.224274397334597</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6</v>
       </c>
@@ -1900,7 +1924,7 @@
         <v>-76.192889736583894</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>7</v>
       </c>
@@ -2035,7 +2059,7 @@
         <v>-75.134381049768905</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7</v>
       </c>
@@ -2055,7 +2079,7 @@
         <v>-74.830552506966796</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7</v>
       </c>
@@ -2076,13 +2100,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H63" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H63" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Quroum_Round_USA/Stage1/StateToState.xlsx
+++ b/Quroum_Round_USA/Stage1/StateToState.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepos\A_Quorum_Journey\Quroum_Round_USA\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91A7631-7FA0-4124-A4E4-33B0796E661F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A38DE4-4B65-479B-B2CA-BF73F7B0364F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39000" yWindow="-630" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-3465" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All States" sheetId="1" r:id="rId1"/>
@@ -603,10 +603,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:H23"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +638,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -663,7 +664,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -689,7 +690,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -715,7 +716,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -741,7 +742,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -767,7 +768,7 @@
         <v>3356</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -793,7 +794,7 @@
         <v>3466</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -813,7 +814,7 @@
         <v>-71.0156164820052</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -839,7 +840,7 @@
         <v>8591</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -859,7 +860,7 @@
         <v>-71.891327198994006</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -879,7 +880,7 @@
         <v>-71.891370471813104</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -899,7 +900,7 @@
         <v>-73.361351523356404</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -925,7 +926,7 @@
         <v>13436</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -951,7 +952,7 @@
         <v>13621</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -977,7 +978,7 @@
         <v>14706</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -997,7 +998,7 @@
         <v>-83.488986612365693</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1028,7 +1029,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1059,7 +1060,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1090,7 +1091,7 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1121,7 +1122,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1152,7 +1153,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1172,7 +1173,7 @@
         <v>-94.908508856479003</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1225,6 +1226,9 @@
       <c r="G24">
         <v>-90.636798025705204</v>
       </c>
+      <c r="H24">
+        <v>746</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1248,8 +1252,11 @@
       <c r="G25">
         <v>-92.759555089986705</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1291,6 +1298,9 @@
       <c r="G27">
         <v>-96.413737403750901</v>
       </c>
+      <c r="H27">
+        <v>4351</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -1314,6 +1324,9 @@
       <c r="G28">
         <v>-98.885590099601202</v>
       </c>
+      <c r="H28">
+        <v>4686</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -1337,6 +1350,9 @@
       <c r="G29">
         <v>-104.05617915281999</v>
       </c>
+      <c r="H29">
+        <v>6792</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -1360,6 +1376,9 @@
       <c r="G30">
         <v>-104.365954969264</v>
       </c>
+      <c r="H30">
+        <v>6797</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -1383,6 +1402,9 @@
       <c r="G31">
         <v>-115.695198922518</v>
       </c>
+      <c r="H31">
+        <v>13301</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -1406,8 +1428,11 @@
       <c r="G32">
         <v>-117.041641292279</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1430,7 +1455,7 @@
         <v>-120.836076664169</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1453,7 +1478,7 @@
         <v>-122.615611805387</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1476,7 +1501,7 @@
         <v>-115.391147726041</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1499,7 +1524,7 @@
         <v>-114.740075156847</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
@@ -1522,7 +1547,7 @@
         <v>-111.57279949660401</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -1542,7 +1567,7 @@
         <v>-112.832506887956</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -1562,7 +1587,7 @@
         <v>-111.045501381783</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
@@ -1585,7 +1610,7 @@
         <v>-104.906929837048</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1608,7 +1633,7 @@
         <v>-104.48062324801</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1631,7 +1656,7 @@
         <v>-104.531993448121</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
@@ -1654,7 +1679,7 @@
         <v>-97.159374056442601</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
@@ -1677,7 +1702,7 @@
         <v>-94.441261204757595</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1700,7 +1725,7 @@
         <v>-90.076077015797793</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1723,7 +1748,7 @@
         <v>-90.002532312458598</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1746,7 +1771,7 @@
         <v>-88.400469703676194</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1769,7 +1794,7 @@
         <v>-87.412411617613799</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5</v>
       </c>
@@ -1792,7 +1817,7 @@
         <v>-81.978900523306194</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
@@ -1815,7 +1840,7 @@
         <v>-81.151228139363994</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5</v>
       </c>
@@ -1838,7 +1863,7 @@
         <v>-80.931031453331499</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
@@ -1861,7 +1886,7 @@
         <v>-80.744742899501503</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6</v>
       </c>
@@ -1884,7 +1909,7 @@
         <v>-81.123480397960094</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6</v>
       </c>
@@ -1904,7 +1929,7 @@
         <v>-80.224274397334597</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6</v>
       </c>
@@ -1924,7 +1949,7 @@
         <v>-76.192889736583894</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>7</v>
       </c>
@@ -1944,7 +1969,7 @@
         <v>-76.192889736583894</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>7</v>
       </c>
@@ -1967,7 +1992,7 @@
         <v>-77.042278018064195</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7</v>
       </c>
@@ -1990,7 +2015,7 @@
         <v>-76.934085574754803</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7</v>
       </c>
@@ -2013,7 +2038,7 @@
         <v>-75.769359711446995</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>7</v>
       </c>
@@ -2036,7 +2061,7 @@
         <v>-75.509368983733197</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>7</v>
       </c>
@@ -2059,7 +2084,7 @@
         <v>-75.134381049768905</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7</v>
       </c>
@@ -2079,7 +2104,7 @@
         <v>-74.830552506966796</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7</v>
       </c>
@@ -2100,7 +2125,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H63" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H63" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2111,7 +2147,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,7 +2491,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Quroum_Round_USA/Stage1/StateToState.xlsx
+++ b/Quroum_Round_USA/Stage1/StateToState.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepos\A_Quorum_Journey\Quroum_Round_USA\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A38DE4-4B65-479B-B2CA-BF73F7B0364F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF432B0-87C3-4B4A-9BF1-F28894D28BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3465" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35385" yWindow="-1575" windowWidth="31845" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All States" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All States'!$A$1:$H$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -607,7 +608,7 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+      <selection activeCell="J24" sqref="J24:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,6 +1230,10 @@
       <c r="H24">
         <v>746</v>
       </c>
+      <c r="J24" t="str">
+        <f>"("&amp;H24&amp;","&amp;F24&amp;","&amp;G24&amp;")"</f>
+        <v>(746,42.5155847568386,-90.6367980257052)</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1255,8 +1260,12 @@
       <c r="H25">
         <v>2726</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J25" t="str">
+        <f t="shared" ref="J25:J32" si="0">"("&amp;H25&amp;","&amp;F25&amp;","&amp;G25&amp;")"</f>
+        <v>(2726,44.9627579493454,-92.7595550899867)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1274,6 +1283,10 @@
       </c>
       <c r="G26">
         <v>-95.683511273435201</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>(,43.4999414174949,-95.6835112734352)</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1301,6 +1314,10 @@
       <c r="H27">
         <v>4351</v>
       </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>(4351,42.4880010108353,-96.4137374037509)</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -1327,6 +1344,10 @@
       <c r="H28">
         <v>4686</v>
       </c>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>(4686,42.9981951518903,-98.8855900996012)</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -1351,7 +1372,11 @@
         <v>-104.05617915281999</v>
       </c>
       <c r="H29">
-        <v>6792</v>
+        <v>6791</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>(6791,44.8117229957922,-104.05617915282)</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1377,7 +1402,11 @@
         <v>-104.365954969264</v>
       </c>
       <c r="H30">
-        <v>6797</v>
+        <v>6866</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>(6866,44.9981423665443,-104.365954969264)</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1403,7 +1432,11 @@
         <v>-115.695198922518</v>
       </c>
       <c r="H31">
-        <v>13301</v>
+        <v>13496</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>(13496,47.4561131248124,-115.695198922518)</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1429,7 +1462,11 @@
         <v>-117.041641292279</v>
       </c>
       <c r="H32">
-        <v>14390</v>
+        <v>14391</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>(14391,47.69693241677,-117.041641292279)</v>
       </c>
     </row>
     <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2130,11 +2167,6 @@
       <filters>
         <filter val="3"/>
       </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Quroum_Round_USA/Stage1/StateToState.xlsx
+++ b/Quroum_Round_USA/Stage1/StateToState.xlsx
@@ -8,20 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepos\A_Quorum_Journey\Quroum_Round_USA\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF432B0-87C3-4B4A-9BF1-F28894D28BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C4C1B0-7507-44DE-BA2E-C7BCD2D6F733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35385" yWindow="-1575" windowWidth="31845" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29310" yWindow="630" windowWidth="31845" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All States" sheetId="1" r:id="rId1"/>
     <sheet name="StatesCrossed" sheetId="2" r:id="rId2"/>
-    <sheet name="Stage2StatesCrossed" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All States'!$A$1:$H$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="70">
   <si>
     <t>Order</t>
   </si>
@@ -247,12 +245,6 @@
   </si>
   <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>Lat</t>
-  </si>
-  <si>
-    <t>Lon</t>
   </si>
   <si>
     <t>KM for Start</t>
@@ -607,8 +599,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24:J32"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,10 +628,10 @@
         <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -665,7 +657,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -691,7 +683,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -717,7 +709,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -743,7 +735,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -769,7 +761,7 @@
         <v>3356</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -815,7 +807,7 @@
         <v>-71.0156164820052</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -901,7 +893,7 @@
         <v>-73.361351523356404</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -927,7 +919,7 @@
         <v>13436</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -953,7 +945,7 @@
         <v>13621</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -999,7 +991,7 @@
         <v>-83.488986612365693</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1030,7 +1022,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1061,7 +1053,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1092,7 +1084,7 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1123,7 +1115,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1174,7 +1166,7 @@
         <v>-94.908508856479003</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1230,6 +1222,9 @@
       <c r="H24">
         <v>746</v>
       </c>
+      <c r="I24">
+        <v>331</v>
+      </c>
       <c r="J24" t="str">
         <f>"("&amp;H24&amp;","&amp;F24&amp;","&amp;G24&amp;")"</f>
         <v>(746,42.5155847568386,-90.6367980257052)</v>
@@ -1260,12 +1255,15 @@
       <c r="H25">
         <v>2726</v>
       </c>
+      <c r="I25">
+        <v>789</v>
+      </c>
       <c r="J25" t="str">
-        <f t="shared" ref="J25:J32" si="0">"("&amp;H25&amp;","&amp;F25&amp;","&amp;G25&amp;")"</f>
+        <f t="shared" ref="J25:J63" si="0">"("&amp;H25&amp;","&amp;F25&amp;","&amp;G25&amp;")"</f>
         <v>(2726,44.9627579493454,-92.7595550899867)</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1314,6 +1312,9 @@
       <c r="H27">
         <v>4351</v>
       </c>
+      <c r="I27">
+        <v>1276</v>
+      </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
         <v>(4351,42.4880010108353,-96.4137374037509)</v>
@@ -1344,6 +1345,9 @@
       <c r="H28">
         <v>4686</v>
       </c>
+      <c r="I28">
+        <v>1543</v>
+      </c>
       <c r="J28" t="str">
         <f t="shared" si="0"/>
         <v>(4686,42.9981951518903,-98.8855900996012)</v>
@@ -1374,6 +1378,9 @@
       <c r="H29">
         <v>6791</v>
       </c>
+      <c r="I29">
+        <v>2176</v>
+      </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
         <v>(6791,44.8117229957922,-104.05617915282)</v>
@@ -1404,6 +1411,9 @@
       <c r="H30">
         <v>6866</v>
       </c>
+      <c r="I30">
+        <v>2209</v>
+      </c>
       <c r="J30" t="str">
         <f t="shared" si="0"/>
         <v>(6866,44.9981423665443,-104.365954969264)</v>
@@ -1434,6 +1444,9 @@
       <c r="H31">
         <v>13496</v>
       </c>
+      <c r="I31">
+        <v>3871</v>
+      </c>
       <c r="J31" t="str">
         <f t="shared" si="0"/>
         <v>(13496,47.4561131248124,-115.695198922518)</v>
@@ -1464,12 +1477,15 @@
       <c r="H32">
         <v>14391</v>
       </c>
+      <c r="I32">
+        <v>3989</v>
+      </c>
       <c r="J32" t="str">
         <f t="shared" si="0"/>
         <v>(14391,47.69693241677,-117.041641292279)</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1491,8 +1507,12 @@
       <c r="G33">
         <v>-120.836076664169</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>(,45.6758579388011,-120.836076664169)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1514,8 +1534,12 @@
       <c r="G34">
         <v>-122.615611805387</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v>(,42.005372567889,-122.615611805387)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1537,8 +1561,12 @@
       <c r="G35">
         <v>-115.391147726041</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J35" t="str">
+        <f t="shared" si="0"/>
+        <v>(,35.6070704380432,-115.391147726041)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1560,8 +1588,12 @@
       <c r="G36">
         <v>-114.740075156847</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v>(,36.0118151673815,-114.740075156847)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
@@ -1583,8 +1615,12 @@
       <c r="G37">
         <v>-111.57279949660401</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J37" t="str">
+        <f t="shared" si="0"/>
+        <v>(,37.0016911731949,-111.572799496604)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -1603,8 +1639,12 @@
       <c r="G38">
         <v>-112.832506887956</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J38" t="str">
+        <f t="shared" si="0"/>
+        <v>(,41.9994384751962,-112.832506887956)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -1623,8 +1663,12 @@
       <c r="G39">
         <v>-111.045501381783</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J39" t="str">
+        <f t="shared" si="0"/>
+        <v>(,43.5434924620382,-111.045501381783)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
@@ -1646,8 +1690,12 @@
       <c r="G40">
         <v>-104.906929837048</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v>(,40.998207424995,-104.906929837048)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1669,8 +1717,12 @@
       <c r="G41">
         <v>-104.48062324801</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J41" t="str">
+        <f t="shared" si="0"/>
+        <v>(,36.9938980811971,-104.48062324801)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1692,8 +1744,12 @@
       <c r="G42">
         <v>-104.531993448121</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v>(,32.0003205752311,-104.531993448121)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
@@ -1715,8 +1771,12 @@
       <c r="G43">
         <v>-97.159374056442601</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J43" t="str">
+        <f t="shared" si="0"/>
+        <v>(,33.7271792056037,-97.1593740564426)</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
@@ -1738,8 +1798,12 @@
       <c r="G44">
         <v>-94.441261204757595</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J44" t="str">
+        <f t="shared" si="0"/>
+        <v>(,35.451426367211,-94.4412612047576)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1761,8 +1825,12 @@
       <c r="G45">
         <v>-90.076077015797793</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J45" t="str">
+        <f t="shared" si="0"/>
+        <v>(,35.12771738453,-90.0760770157978)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1784,8 +1852,12 @@
       <c r="G46">
         <v>-90.002532312458598</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J46" t="str">
+        <f t="shared" si="0"/>
+        <v>(,34.9950041729462,-90.0025323124586)</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1807,8 +1879,12 @@
       <c r="G47">
         <v>-88.400469703676194</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J47" t="str">
+        <f t="shared" si="0"/>
+        <v>(,30.4742057483816,-88.4004697036762)</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1830,8 +1906,12 @@
       <c r="G48">
         <v>-87.412411617613799</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J48" t="str">
+        <f t="shared" si="0"/>
+        <v>(,30.5735490626642,-87.4124116176138)</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5</v>
       </c>
@@ -1853,8 +1933,12 @@
       <c r="G49">
         <v>-81.978900523306194</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J49" t="str">
+        <f t="shared" si="0"/>
+        <v>(,30.7765870060065,-81.9789005233062)</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
@@ -1876,8 +1960,12 @@
       <c r="G50">
         <v>-81.151228139363994</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J50" t="str">
+        <f t="shared" si="0"/>
+        <v>(,32.2355708392112,-81.151228139364)</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5</v>
       </c>
@@ -1899,8 +1987,12 @@
       <c r="G51">
         <v>-80.931031453331499</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J51" t="str">
+        <f t="shared" si="0"/>
+        <v>(,35.1032136933665,-80.9310314533315)</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
@@ -1922,8 +2014,12 @@
       <c r="G52">
         <v>-80.744742899501503</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J52" t="str">
+        <f t="shared" si="0"/>
+        <v>(,36.5616598820775,-80.7447428995015)</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6</v>
       </c>
@@ -1945,8 +2041,12 @@
       <c r="G53">
         <v>-81.123480397960094</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J53" t="str">
+        <f t="shared" si="0"/>
+        <v>(,37.2753539793565,-81.1234803979601)</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6</v>
       </c>
@@ -1965,8 +2065,12 @@
       <c r="G54">
         <v>-80.224274397334597</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J54" t="str">
+        <f t="shared" si="0"/>
+        <v>(,37.7874336901857,-80.2242743973346)</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6</v>
       </c>
@@ -1985,8 +2089,12 @@
       <c r="G55">
         <v>-76.192889736583894</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J55" t="str">
+        <f t="shared" si="0"/>
+        <v>(,36.55055414535,-76.1928897365839)</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>7</v>
       </c>
@@ -2005,8 +2113,12 @@
       <c r="G56">
         <v>-76.192889736583894</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J56" t="str">
+        <f t="shared" si="0"/>
+        <v>(,36.55055414535,-76.1928897365839)</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>7</v>
       </c>
@@ -2028,8 +2140,12 @@
       <c r="G57">
         <v>-77.042278018064195</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J57" t="str">
+        <f t="shared" si="0"/>
+        <v>(,38.8730481073122,-77.0422780180642)</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7</v>
       </c>
@@ -2051,8 +2167,12 @@
       <c r="G58">
         <v>-76.934085574754803</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J58" t="str">
+        <f t="shared" si="0"/>
+        <v>(,38.9122139398922,-76.9340855747548)</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7</v>
       </c>
@@ -2074,8 +2194,12 @@
       <c r="G59">
         <v>-75.769359711446995</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J59" t="str">
+        <f t="shared" si="0"/>
+        <v>(,39.411905136448,-75.769359711447)</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>7</v>
       </c>
@@ -2097,8 +2221,12 @@
       <c r="G60">
         <v>-75.509368983733197</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J60" t="str">
+        <f t="shared" si="0"/>
+        <v>(,39.6853236079503,-75.5093689837332)</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>7</v>
       </c>
@@ -2120,8 +2248,12 @@
       <c r="G61">
         <v>-75.134381049768905</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J61" t="str">
+        <f t="shared" si="0"/>
+        <v>(,39.9529495867904,-75.1343810497689)</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7</v>
       </c>
@@ -2140,8 +2272,12 @@
       <c r="G62">
         <v>-74.830552506966796</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J62" t="str">
+        <f t="shared" si="0"/>
+        <v>(,40.1170986857432,-74.8305525069668)</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7</v>
       </c>
@@ -2160,13 +2296,17 @@
       <c r="G63">
         <v>-74.056604733815703</v>
       </c>
+      <c r="J63" t="str">
+        <f t="shared" si="0"/>
+        <v>(,40.6927479543993,-74.0566047338157)</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H63" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="3"/>
-      </filters>
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2516,188 +2656,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F28B7B-C043-471C-A8B9-94B5D0E32AE0}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="5">
-        <v>39.0922100114255</v>
-      </c>
-      <c r="E2" s="5">
-        <v>-84.522588056208903</v>
-      </c>
-      <c r="F2">
-        <v>2881</v>
-      </c>
-      <c r="G2" t="str">
-        <f>"INSERT INTO [dbo].[Journey_USA_States] ([Order],[ExitingState],[EnteringState],[Lat],[Lon] ,[Idx]) VALUES ("&amp;A2&amp;",'"&amp;B2&amp;"','"&amp;C2&amp;"',"&amp;D2&amp;","&amp;E2&amp;","&amp;F2&amp;")"</f>
-        <v>INSERT INTO [dbo].[Journey_USA_States] ([Order],[ExitingState],[EnteringState],[Lat],[Lon] ,[Idx]) VALUES (16,'Ohio ','Kentucky',39.0922100114255,-84.5225880562089,2881)</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="5">
-        <v>37.904329138035799</v>
-      </c>
-      <c r="E3" s="5">
-        <v>-86.742701181258795</v>
-      </c>
-      <c r="F3">
-        <v>7964</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G7" si="0">"INSERT INTO [dbo].[Journey_USA_States] ([Order],[ExitingState],[EnteringState],[Lat],[Lon] ,[Idx]) VALUES ("&amp;A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;")"</f>
-        <v>INSERT INTO [dbo].[Journey_USA_States] ([Order],[ExitingState],[EnteringState],[Lat],[Lon] ,[Idx]) VALUES (17,'Kentucky','Indiana',37.9043291380358,-86.7427011812588,7964)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="5">
-        <v>38.7074572585826</v>
-      </c>
-      <c r="E4" s="5">
-        <v>-87.519192946420205</v>
-      </c>
-      <c r="F4">
-        <v>9551</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [dbo].[Journey_USA_States] ([Order],[ExitingState],[EnteringState],[Lat],[Lon] ,[Idx]) VALUES (18,'Indiana','Illinois',38.7074572585826,-87.5191929464202,9551)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="5">
-        <v>38.618003212465702</v>
-      </c>
-      <c r="E5" s="5">
-        <v>-90.182592462229394</v>
-      </c>
-      <c r="F5">
-        <v>11171</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [dbo].[Journey_USA_States] ([Order],[ExitingState],[EnteringState],[Lat],[Lon] ,[Idx]) VALUES (19,'Illinois','Missouri',38.6180032124657,-90.1825924622294,11171)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="5">
-        <v>39.099016497713002</v>
-      </c>
-      <c r="E6" s="5">
-        <v>-94.607139544148794</v>
-      </c>
-      <c r="F6">
-        <v>13056</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [dbo].[Journey_USA_States] ([Order],[ExitingState],[EnteringState],[Lat],[Lon] ,[Idx]) VALUES (20,'Missouri','Kansas',39.099016497713,-94.6071395441488,13056)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="5">
-        <v>40.575218586784899</v>
-      </c>
-      <c r="E7" s="5">
-        <v>-93.937174543461893</v>
-      </c>
-      <c r="F7">
-        <v>14256</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO [dbo].[Journey_USA_States] ([Order],[ExitingState],[EnteringState],[Lat],[Lon] ,[Idx]) VALUES (22,'Missouri','Iowa',40.5752185867849,-93.9371745434619,14256)</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>